--- a/src/assets/excell/business_employee.xlsx
+++ b/src/assets/excell/business_employee.xlsx
@@ -1,13 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
+  <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A410D67C-0E37-46F7-BB40-1D28BCF1BEC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="data" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,10 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
-  <si>
-    <t>شناسه کسب و کار</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>کد ملی کارمند</t>
   </si>
@@ -97,12 +96,45 @@
   </si>
   <si>
     <t>مبلغ سفته 2</t>
+  </si>
+  <si>
+    <t>تاریخ شروع به کار</t>
+  </si>
+  <si>
+    <t xml:space="preserve">نام داور </t>
+  </si>
+  <si>
+    <t>نام خانوادگی داور</t>
+  </si>
+  <si>
+    <t>کد ملی داور</t>
+  </si>
+  <si>
+    <t>شماره موبایل داور</t>
+  </si>
+  <si>
+    <t>نام داور 2</t>
+  </si>
+  <si>
+    <t>نام خانوادگی داور 2</t>
+  </si>
+  <si>
+    <t>کد ملی داور 2</t>
+  </si>
+  <si>
+    <t>شماره موبایل داور 2</t>
+  </si>
+  <si>
+    <t>بلی</t>
+  </si>
+  <si>
+    <t>خیر</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -437,18 +469,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Z2"/>
+  <dimension ref="A1:AH2"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="F2" sqref="A2:XFD3"/>
+    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" customWidth="1"/>
     <col min="3" max="3" width="7" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="24.7109375" bestFit="1" customWidth="1"/>
@@ -465,93 +497,163 @@
     <col min="16" max="16" width="17.85546875" customWidth="1"/>
     <col min="17" max="17" width="12.85546875" customWidth="1"/>
     <col min="18" max="18" width="18" customWidth="1"/>
+    <col min="21" max="21" width="14.140625" customWidth="1"/>
     <col min="23" max="23" width="12.5703125" customWidth="1"/>
     <col min="25" max="25" width="14.5703125" customWidth="1"/>
+    <col min="27" max="27" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="12" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="15" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="9.5703125" customWidth="1"/>
+    <col min="32" max="32" width="17.85546875" customWidth="1"/>
+    <col min="33" max="33" width="12.85546875" customWidth="1"/>
+    <col min="34" max="34" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="1" t="s">
-        <v>25</v>
+      <c r="AA1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:34" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{4754185C-06FA-45DE-A5AB-2CF1BB019333}">
+          <x14:formula1>
+            <xm:f>data!$B$3:$B$4</xm:f>
+          </x14:formula1>
+          <xm:sqref>H2</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22C13CAB-AAFD-4F33-93D6-DB04ED204468}">
+  <dimension ref="B3:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>